--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -729,13 +729,13 @@
         <v>1100</v>
       </c>
       <c r="H8" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I8" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J8" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="K8" s="3">
         <v>6700</v>
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J9" s="3">
         <v>2400</v>
@@ -801,7 +801,7 @@
         <v>1300</v>
       </c>
       <c r="J10" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="K10" s="3">
         <v>6500</v>
@@ -849,7 +849,7 @@
         <v>400</v>
       </c>
       <c r="J12" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
@@ -912,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E17" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="F17" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G17" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H17" s="3">
         <v>4000</v>
       </c>
       <c r="I17" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J17" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="K17" s="3">
         <v>20500</v>
@@ -1008,19 +1008,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="E18" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="F18" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G18" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H18" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
@@ -1059,7 +1059,7 @@
         <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1092,10 +1092,10 @@
         <v>-3400</v>
       </c>
       <c r="E21" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F21" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="G21" s="3">
         <v>-3100</v>
@@ -1104,10 +1104,10 @@
         <v>-1500</v>
       </c>
       <c r="I21" s="3">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="J21" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K21" s="3">
         <v>-8100</v>
@@ -1155,16 +1155,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3200</v>
       </c>
       <c r="H23" s="3">
         <v>-1500</v>
@@ -1254,16 +1254,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3200</v>
       </c>
       <c r="H26" s="3">
         <v>-1500</v>
@@ -1287,16 +1287,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3200</v>
       </c>
       <c r="H27" s="3">
         <v>-1500</v>
@@ -1305,7 +1305,7 @@
         <v>-700</v>
       </c>
       <c r="J27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K27" s="3">
         <v>-12600</v>
@@ -1365,13 +1365,13 @@
         <v>900</v>
       </c>
       <c r="H29" s="3">
-        <v>-22700</v>
+        <v>-22300</v>
       </c>
       <c r="I29" s="3">
-        <v>-19100</v>
+        <v>-18800</v>
       </c>
       <c r="J29" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K29" s="3">
         <v>-13400</v>
@@ -1455,7 +1455,7 @@
         <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1485,22 +1485,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E33" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F33" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G33" s="3">
         <v>-2300</v>
       </c>
       <c r="H33" s="3">
-        <v>-24200</v>
+        <v>-23800</v>
       </c>
       <c r="I33" s="3">
-        <v>-19800</v>
+        <v>-19600</v>
       </c>
       <c r="J33" s="3">
         <v>-800</v>
@@ -1551,22 +1551,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E35" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F35" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G35" s="3">
         <v>-2300</v>
       </c>
       <c r="H35" s="3">
-        <v>-24200</v>
+        <v>-23800</v>
       </c>
       <c r="I35" s="3">
-        <v>-19800</v>
+        <v>-19600</v>
       </c>
       <c r="J35" s="3">
         <v>-800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="E42" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="F42" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="G42" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="H42" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="I42" s="3">
-        <v>41600</v>
+        <v>41200</v>
       </c>
       <c r="J42" s="3">
-        <v>39600</v>
+        <v>39200</v>
       </c>
       <c r="K42" s="3">
         <v>59500</v>
@@ -1721,7 +1721,7 @@
         <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F43" s="3">
         <v>1100</v>
@@ -1730,13 +1730,13 @@
         <v>2200</v>
       </c>
       <c r="H43" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I43" s="3">
         <v>1700</v>
       </c>
       <c r="J43" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="K43" s="3">
         <v>3500</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K44" s="3">
         <v>1300</v>
@@ -1799,7 +1799,7 @@
         <v>1100</v>
       </c>
       <c r="I45" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="E46" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="F46" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="G46" s="3">
-        <v>37100</v>
+        <v>36700</v>
       </c>
       <c r="H46" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="I46" s="3">
-        <v>65500</v>
+        <v>64900</v>
       </c>
       <c r="J46" s="3">
-        <v>59900</v>
+        <v>59400</v>
       </c>
       <c r="K46" s="3">
         <v>68000</v>
@@ -1901,7 +1901,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="K48" s="3">
         <v>11100</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="K49" s="3">
         <v>14500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25200</v>
+        <v>25000</v>
       </c>
       <c r="E54" s="3">
-        <v>33500</v>
+        <v>33200</v>
       </c>
       <c r="F54" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="G54" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="H54" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="I54" s="3">
-        <v>65600</v>
+        <v>65000</v>
       </c>
       <c r="J54" s="3">
-        <v>92400</v>
+        <v>91500</v>
       </c>
       <c r="K54" s="3">
         <v>93700</v>
@@ -2225,7 +2225,7 @@
         <v>2700</v>
       </c>
       <c r="I59" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J59" s="3">
         <v>3900</v>
@@ -2327,7 +2327,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K62" s="3">
         <v>3500</v>
@@ -2450,13 +2450,13 @@
         <v>1700</v>
       </c>
       <c r="G66" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H66" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I66" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J66" s="3">
         <v>10200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-132000</v>
+        <v>-130700</v>
       </c>
       <c r="E72" s="3">
-        <v>-128500</v>
+        <v>-127300</v>
       </c>
       <c r="F72" s="3">
-        <v>-125400</v>
+        <v>-124200</v>
       </c>
       <c r="G72" s="3">
-        <v>-118600</v>
+        <v>-117500</v>
       </c>
       <c r="H72" s="3">
-        <v>-116400</v>
+        <v>-115200</v>
       </c>
       <c r="I72" s="3">
-        <v>-92300</v>
+        <v>-91400</v>
       </c>
       <c r="J72" s="3">
-        <v>-72700</v>
+        <v>-72000</v>
       </c>
       <c r="K72" s="3">
         <v>-77700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="E76" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="F76" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="G76" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="H76" s="3">
-        <v>38700</v>
+        <v>38300</v>
       </c>
       <c r="I76" s="3">
-        <v>62500</v>
+        <v>61900</v>
       </c>
       <c r="J76" s="3">
-        <v>82100</v>
+        <v>81300</v>
       </c>
       <c r="K76" s="3">
         <v>85700</v>
@@ -2857,22 +2857,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E81" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F81" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G81" s="3">
         <v>-2300</v>
       </c>
       <c r="H81" s="3">
-        <v>-24200</v>
+        <v>-23800</v>
       </c>
       <c r="I81" s="3">
-        <v>-19800</v>
+        <v>-19600</v>
       </c>
       <c r="J81" s="3">
         <v>-800</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="J83" s="3">
         <v>2500</v>
@@ -3103,13 +3103,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="E89" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="F89" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="G89" s="3">
         <v>-4300</v>
@@ -3169,7 +3169,7 @@
         <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="K91" s="3">
         <v>-4300</v>
@@ -3253,22 +3253,22 @@
         <v>5100</v>
       </c>
       <c r="E94" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F94" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G94" s="3">
         <v>4700</v>
       </c>
       <c r="H94" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="J94" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="K94" s="3">
         <v>2900</v>
@@ -3514,7 +3514,7 @@
         <v>-3700</v>
       </c>
       <c r="J102" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K102" s="3">
         <v>-8300</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -720,22 +720,22 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F8" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="I8" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="J8" s="3">
-        <v>15700</v>
+        <v>17100</v>
       </c>
       <c r="K8" s="3">
         <v>6700</v>
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="J9" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -798,10 +798,10 @@
         <v>5</v>
       </c>
       <c r="I10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J10" s="3">
-        <v>13300</v>
+        <v>14500</v>
       </c>
       <c r="K10" s="3">
         <v>6500</v>
@@ -837,7 +837,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>400</v>
       </c>
       <c r="J12" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
@@ -912,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="K15" s="3">
         <v>2000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4000</v>
-      </c>
       <c r="I17" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="J17" s="3">
-        <v>17500</v>
+        <v>19100</v>
       </c>
       <c r="K17" s="3">
         <v>20500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3800</v>
+        <v>-4200</v>
       </c>
       <c r="E18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-6700</v>
-      </c>
       <c r="G18" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="H18" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="I18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J18" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="K18" s="3">
         <v>-13800</v>
@@ -1056,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K20" s="3">
         <v>1100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I21" s="3">
-        <v>11800</v>
+        <v>12900</v>
       </c>
       <c r="J21" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="K21" s="3">
         <v>-8100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H23" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="I23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J23" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K23" s="3">
         <v>-12700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="I26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J26" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K26" s="3">
         <v>-12700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="I27" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J27" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K27" s="3">
         <v>-12600</v>
@@ -1365,13 +1365,13 @@
         <v>900</v>
       </c>
       <c r="H29" s="3">
-        <v>-22300</v>
+        <v>-24300</v>
       </c>
       <c r="I29" s="3">
-        <v>-18800</v>
+        <v>-20500</v>
       </c>
       <c r="J29" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="K29" s="3">
         <v>-13400</v>
@@ -1452,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4300</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="K32" s="3">
         <v>-1100</v>
@@ -1485,22 +1485,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3400</v>
+        <v>-3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="F33" s="3">
-        <v>-6700</v>
+        <v>-7300</v>
       </c>
       <c r="G33" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="H33" s="3">
-        <v>-23800</v>
+        <v>-26000</v>
       </c>
       <c r="I33" s="3">
-        <v>-19600</v>
+        <v>-21300</v>
       </c>
       <c r="J33" s="3">
         <v>-800</v>
@@ -1551,22 +1551,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3400</v>
+        <v>-3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="F35" s="3">
-        <v>-6700</v>
+        <v>-7300</v>
       </c>
       <c r="G35" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="H35" s="3">
-        <v>-23800</v>
+        <v>-26000</v>
       </c>
       <c r="I35" s="3">
-        <v>-19600</v>
+        <v>-21300</v>
       </c>
       <c r="J35" s="3">
         <v>-800</v>
@@ -1652,10 +1652,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
@@ -1667,10 +1667,10 @@
         <v>700</v>
       </c>
       <c r="I41" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J41" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="K41" s="3">
         <v>2400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21600</v>
+        <v>23500</v>
       </c>
       <c r="E42" s="3">
-        <v>26100</v>
+        <v>28400</v>
       </c>
       <c r="F42" s="3">
-        <v>27900</v>
+        <v>30200</v>
       </c>
       <c r="G42" s="3">
-        <v>33100</v>
+        <v>35900</v>
       </c>
       <c r="H42" s="3">
-        <v>36100</v>
+        <v>39200</v>
       </c>
       <c r="I42" s="3">
-        <v>41200</v>
+        <v>44700</v>
       </c>
       <c r="J42" s="3">
-        <v>39200</v>
+        <v>42600</v>
       </c>
       <c r="K42" s="3">
         <v>59500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="F43" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H43" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="I43" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J43" s="3">
-        <v>13700</v>
+        <v>14900</v>
       </c>
       <c r="K43" s="3">
         <v>3500</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K44" s="3">
         <v>1300</v>
@@ -1796,10 +1796,10 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I45" s="3">
-        <v>20600</v>
+        <v>22300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24900</v>
+        <v>27000</v>
       </c>
       <c r="E46" s="3">
-        <v>33100</v>
+        <v>35900</v>
       </c>
       <c r="F46" s="3">
-        <v>29700</v>
+        <v>32200</v>
       </c>
       <c r="G46" s="3">
-        <v>36700</v>
+        <v>39800</v>
       </c>
       <c r="H46" s="3">
-        <v>41300</v>
+        <v>44800</v>
       </c>
       <c r="I46" s="3">
-        <v>64900</v>
+        <v>70400</v>
       </c>
       <c r="J46" s="3">
-        <v>59400</v>
+        <v>64400</v>
       </c>
       <c r="K46" s="3">
         <v>68000</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="G47" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -1901,7 +1901,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>18300</v>
+        <v>19800</v>
       </c>
       <c r="K48" s="3">
         <v>11100</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>13700</v>
+        <v>14900</v>
       </c>
       <c r="K49" s="3">
         <v>14500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25000</v>
+        <v>27100</v>
       </c>
       <c r="E54" s="3">
-        <v>33200</v>
+        <v>36000</v>
       </c>
       <c r="F54" s="3">
-        <v>34600</v>
+        <v>37500</v>
       </c>
       <c r="G54" s="3">
-        <v>37900</v>
+        <v>41100</v>
       </c>
       <c r="H54" s="3">
-        <v>41300</v>
+        <v>44800</v>
       </c>
       <c r="I54" s="3">
-        <v>65000</v>
+        <v>70500</v>
       </c>
       <c r="J54" s="3">
-        <v>91500</v>
+        <v>99200</v>
       </c>
       <c r="K54" s="3">
         <v>93700</v>
@@ -2147,10 +2147,10 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
@@ -2162,7 +2162,7 @@
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K57" s="3">
         <v>2000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H59" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="I59" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="J59" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="K59" s="3">
         <v>2900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="F60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G60" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H60" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="I60" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="J60" s="3">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="K60" s="3">
         <v>4900</v>
@@ -2327,7 +2327,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>4900</v>
+        <v>5400</v>
       </c>
       <c r="K62" s="3">
         <v>3500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F66" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="G66" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H66" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="I66" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="J66" s="3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
       <c r="K66" s="3">
         <v>8000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-130700</v>
+        <v>-141800</v>
       </c>
       <c r="E72" s="3">
-        <v>-127300</v>
+        <v>-138100</v>
       </c>
       <c r="F72" s="3">
-        <v>-124200</v>
+        <v>-134800</v>
       </c>
       <c r="G72" s="3">
-        <v>-117500</v>
+        <v>-127500</v>
       </c>
       <c r="H72" s="3">
-        <v>-115200</v>
+        <v>-125000</v>
       </c>
       <c r="I72" s="3">
-        <v>-91400</v>
+        <v>-99100</v>
       </c>
       <c r="J72" s="3">
-        <v>-72000</v>
+        <v>-78100</v>
       </c>
       <c r="K72" s="3">
         <v>-77700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24000</v>
+        <v>26100</v>
       </c>
       <c r="E76" s="3">
-        <v>31400</v>
+        <v>34000</v>
       </c>
       <c r="F76" s="3">
-        <v>32900</v>
+        <v>35600</v>
       </c>
       <c r="G76" s="3">
-        <v>35800</v>
+        <v>38900</v>
       </c>
       <c r="H76" s="3">
-        <v>38300</v>
+        <v>41500</v>
       </c>
       <c r="I76" s="3">
-        <v>61900</v>
+        <v>67200</v>
       </c>
       <c r="J76" s="3">
-        <v>81300</v>
+        <v>88200</v>
       </c>
       <c r="K76" s="3">
         <v>85700</v>
@@ -2857,22 +2857,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3400</v>
+        <v>-3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="F81" s="3">
-        <v>-6700</v>
+        <v>-7300</v>
       </c>
       <c r="G81" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="H81" s="3">
-        <v>-23800</v>
+        <v>-26000</v>
       </c>
       <c r="I81" s="3">
-        <v>-19600</v>
+        <v>-21300</v>
       </c>
       <c r="J81" s="3">
         <v>-800</v>
@@ -2920,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>12700</v>
+        <v>13800</v>
       </c>
       <c r="J83" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K83" s="3">
         <v>4700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-4300</v>
-      </c>
       <c r="H89" s="3">
-        <v>-5300</v>
+        <v>-5700</v>
       </c>
       <c r="I89" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="J89" s="3">
-        <v>-5500</v>
+        <v>-5900</v>
       </c>
       <c r="K89" s="3">
         <v>-11400</v>
@@ -3163,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>-9200</v>
+        <v>-10000</v>
       </c>
       <c r="K91" s="3">
         <v>-4300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G94" s="3">
         <v>5100</v>
       </c>
-      <c r="E94" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>4700</v>
-      </c>
       <c r="H94" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="I94" s="3">
-        <v>-5800</v>
+        <v>-6300</v>
       </c>
       <c r="J94" s="3">
-        <v>8700</v>
+        <v>9500</v>
       </c>
       <c r="K94" s="3">
         <v>2900</v>
@@ -3496,7 +3496,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
@@ -3508,13 +3508,13 @@
         <v>400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I102" s="3">
-        <v>-3700</v>
+        <v>-4000</v>
       </c>
       <c r="J102" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="K102" s="3">
         <v>-8300</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>SILXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40724</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
       </c>
       <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
-        <v>5100</v>
-      </c>
       <c r="J8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K8" s="3">
         <v>17100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,21 +770,24 @@
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
-        <v>3700</v>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,21 +806,24 @@
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -834,32 +847,35 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,14 +906,17 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -911,26 +930,29 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>9000</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+        <v>9100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -945,20 +967,23 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>6400</v>
       </c>
       <c r="E17" s="3">
-        <v>8800</v>
+        <v>4800</v>
       </c>
       <c r="F17" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G17" s="3">
-        <v>4500</v>
+        <v>8700</v>
       </c>
       <c r="H17" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="I17" s="3">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="J17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K17" s="3">
         <v>19100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4200</v>
+        <v>-5700</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
+        <v>-4300</v>
       </c>
       <c r="F18" s="3">
-        <v>-7300</v>
+        <v>-8200</v>
       </c>
       <c r="G18" s="3">
-        <v>-3300</v>
+        <v>-7500</v>
       </c>
       <c r="H18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>4700</v>
-      </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3700</v>
+        <v>-5500</v>
       </c>
       <c r="E21" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F21" s="3">
-        <v>-7400</v>
+        <v>-3400</v>
       </c>
       <c r="G21" s="3">
-        <v>-3400</v>
+        <v>-7600</v>
       </c>
       <c r="H21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
-        <v>12900</v>
-      </c>
       <c r="J21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1146,44 +1185,50 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3700</v>
+        <v>-5800</v>
       </c>
       <c r="E23" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F23" s="3">
-        <v>-7400</v>
+        <v>-3400</v>
       </c>
       <c r="G23" s="3">
-        <v>-3400</v>
+        <v>-7600</v>
       </c>
       <c r="H23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1214,9 +1259,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3700</v>
+        <v>-5800</v>
       </c>
       <c r="E26" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F26" s="3">
-        <v>-7400</v>
+        <v>-3400</v>
       </c>
       <c r="G26" s="3">
-        <v>-3400</v>
+        <v>-7600</v>
       </c>
       <c r="H26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3700</v>
+        <v>-5800</v>
       </c>
       <c r="E27" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F27" s="3">
-        <v>-7400</v>
+        <v>-3400</v>
       </c>
       <c r="G27" s="3">
-        <v>-3400</v>
+        <v>-7600</v>
       </c>
       <c r="H27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
-        <v>900</v>
-      </c>
       <c r="H29" s="3">
-        <v>-24300</v>
+        <v>1000</v>
       </c>
       <c r="I29" s="3">
-        <v>-20500</v>
+        <v>-24900</v>
       </c>
       <c r="J29" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-13400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-13600</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4700</v>
-      </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>-4800</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3700</v>
+        <v>-5800</v>
       </c>
       <c r="E33" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F33" s="3">
-        <v>-7300</v>
+        <v>-3400</v>
       </c>
       <c r="G33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L33" s="3">
         <v>-26000</v>
       </c>
-      <c r="I33" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3700</v>
+        <v>-5800</v>
       </c>
       <c r="E35" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F35" s="3">
-        <v>-7300</v>
+        <v>-3400</v>
       </c>
       <c r="G35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L35" s="3">
         <v>-26000</v>
       </c>
-      <c r="I35" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40724</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,107 +1731,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="F41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>1100</v>
-      </c>
       <c r="H41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23500</v>
+        <v>18700</v>
       </c>
       <c r="E42" s="3">
-        <v>28400</v>
+        <v>24000</v>
       </c>
       <c r="F42" s="3">
-        <v>30200</v>
+        <v>29000</v>
       </c>
       <c r="G42" s="3">
-        <v>35900</v>
+        <v>30900</v>
       </c>
       <c r="H42" s="3">
-        <v>39200</v>
+        <v>36700</v>
       </c>
       <c r="I42" s="3">
-        <v>44700</v>
+        <v>40000</v>
       </c>
       <c r="J42" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K42" s="3">
         <v>42600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>59500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>74000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
-        <v>6000</v>
-      </c>
       <c r="F43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
-        <v>2400</v>
-      </c>
       <c r="H43" s="3">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="I43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1762,24 +1857,27 @@
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1787,88 +1885,94 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
-        <v>22300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27000</v>
+        <v>21500</v>
       </c>
       <c r="E46" s="3">
-        <v>35900</v>
+        <v>27600</v>
       </c>
       <c r="F46" s="3">
-        <v>32200</v>
+        <v>36700</v>
       </c>
       <c r="G46" s="3">
-        <v>39800</v>
+        <v>32900</v>
       </c>
       <c r="H46" s="3">
-        <v>44800</v>
+        <v>40700</v>
       </c>
       <c r="I46" s="3">
-        <v>70400</v>
+        <v>45800</v>
       </c>
       <c r="J46" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K46" s="3">
         <v>64400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -1876,14 +1980,17 @@
       <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -1895,23 +2002,26 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1921,8 +2031,8 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1934,17 +2044,20 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>14900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,9 +2124,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2020,8 +2139,8 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2041,9 +2160,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27100</v>
+        <v>21700</v>
       </c>
       <c r="E54" s="3">
-        <v>36000</v>
+        <v>27700</v>
       </c>
       <c r="F54" s="3">
-        <v>37500</v>
+        <v>36800</v>
       </c>
       <c r="G54" s="3">
-        <v>41100</v>
+        <v>38300</v>
       </c>
       <c r="H54" s="3">
-        <v>44800</v>
+        <v>42000</v>
       </c>
       <c r="I54" s="3">
-        <v>70500</v>
+        <v>45800</v>
       </c>
       <c r="J54" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K54" s="3">
         <v>99200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,64 +2267,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
-        <v>800</v>
-      </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2203,14 +2336,17 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
@@ -2219,59 +2355,65 @@
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
-        <v>3300</v>
-      </c>
       <c r="J59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
-        <v>2100</v>
-      </c>
       <c r="H60" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="I60" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="J60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2302,9 +2444,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2312,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2327,17 +2472,20 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
-        <v>2200</v>
-      </c>
       <c r="H66" s="3">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="I66" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K66" s="3">
         <v>11000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-141800</v>
+        <v>-150600</v>
       </c>
       <c r="E72" s="3">
-        <v>-138100</v>
+        <v>-144900</v>
       </c>
       <c r="F72" s="3">
-        <v>-134800</v>
+        <v>-141100</v>
       </c>
       <c r="G72" s="3">
-        <v>-127500</v>
+        <v>-137700</v>
       </c>
       <c r="H72" s="3">
-        <v>-125000</v>
+        <v>-130200</v>
       </c>
       <c r="I72" s="3">
-        <v>-99100</v>
+        <v>-127700</v>
       </c>
       <c r="J72" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-78100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26100</v>
+        <v>20300</v>
       </c>
       <c r="E76" s="3">
-        <v>34000</v>
+        <v>26600</v>
       </c>
       <c r="F76" s="3">
-        <v>35600</v>
+        <v>34800</v>
       </c>
       <c r="G76" s="3">
-        <v>38900</v>
+        <v>36400</v>
       </c>
       <c r="H76" s="3">
-        <v>41500</v>
+        <v>39700</v>
       </c>
       <c r="I76" s="3">
-        <v>67200</v>
+        <v>42400</v>
       </c>
       <c r="J76" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K76" s="3">
         <v>88200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>113000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40724</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3700</v>
+        <v>-5800</v>
       </c>
       <c r="E81" s="3">
-        <v>-3300</v>
+        <v>-3800</v>
       </c>
       <c r="F81" s="3">
-        <v>-7300</v>
+        <v>-3400</v>
       </c>
       <c r="G81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L81" s="3">
         <v>-26000</v>
       </c>
-      <c r="I81" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,13 +3096,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2920,20 +3118,23 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>13800</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,9 +3309,12 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3106,32 +3322,35 @@
         <v>-5100</v>
       </c>
       <c r="E89" s="3">
-        <v>-7800</v>
+        <v>-5200</v>
       </c>
       <c r="F89" s="3">
-        <v>-6500</v>
+        <v>-7900</v>
       </c>
       <c r="G89" s="3">
-        <v>-4600</v>
+        <v>-6700</v>
       </c>
       <c r="H89" s="3">
-        <v>-5700</v>
+        <v>-4700</v>
       </c>
       <c r="I89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="E94" s="3">
-        <v>7900</v>
+        <v>5600</v>
       </c>
       <c r="F94" s="3">
-        <v>6700</v>
+        <v>8000</v>
       </c>
       <c r="G94" s="3">
-        <v>5100</v>
+        <v>6900</v>
       </c>
       <c r="H94" s="3">
-        <v>4100</v>
+        <v>5200</v>
       </c>
       <c r="I94" s="3">
-        <v>-6300</v>
+        <v>4200</v>
       </c>
       <c r="J94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K94" s="3">
         <v>9500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,23 +3665,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3453,12 +3698,15 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3481,48 +3729,54 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
-        <v>-4000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -720,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
@@ -735,10 +735,10 @@
         <v>1200</v>
       </c>
       <c r="I8" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J8" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K8" s="3">
         <v>17100</v>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K9" s="3">
         <v>2600</v>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K10" s="3">
         <v>14500</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E17" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F17" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G17" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H17" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I17" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J17" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K17" s="3">
         <v>19100</v>
@@ -1037,22 +1037,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="E18" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="F18" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="G18" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="H18" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="I18" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J18" s="3">
         <v>-900</v>
@@ -1095,7 +1095,7 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E21" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F21" s="3">
         <v>-3400</v>
       </c>
       <c r="G21" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="H21" s="3">
         <v>-3500</v>
       </c>
       <c r="I21" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J21" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="K21" s="3">
         <v>4300</v>
@@ -1197,19 +1197,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E23" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F23" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G23" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="H23" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I23" s="3">
         <v>-1700</v>
@@ -1305,19 +1305,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E26" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F26" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G26" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="H26" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I26" s="3">
         <v>-1700</v>
@@ -1341,19 +1341,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E27" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F27" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G27" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="H27" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I27" s="3">
         <v>-1700</v>
@@ -1428,10 +1428,10 @@
         <v>1000</v>
       </c>
       <c r="I29" s="3">
-        <v>-24900</v>
+        <v>-25500</v>
       </c>
       <c r="J29" s="3">
-        <v>-21000</v>
+        <v>-21500</v>
       </c>
       <c r="K29" s="3">
         <v>-2500</v>
@@ -1527,7 +1527,7 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E33" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F33" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G33" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="H33" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I33" s="3">
-        <v>-26500</v>
+        <v>-27200</v>
       </c>
       <c r="J33" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="K33" s="3">
         <v>-800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E35" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F35" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G35" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="H35" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I35" s="3">
-        <v>-26500</v>
+        <v>-27200</v>
       </c>
       <c r="J35" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="K35" s="3">
         <v>-800</v>
@@ -1747,7 +1747,7 @@
         <v>1500</v>
       </c>
       <c r="G41" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H41" s="3">
         <v>1200</v>
@@ -1756,7 +1756,7 @@
         <v>700</v>
       </c>
       <c r="J41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K41" s="3">
         <v>4000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="E42" s="3">
-        <v>24000</v>
+        <v>24600</v>
       </c>
       <c r="F42" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="G42" s="3">
-        <v>30900</v>
+        <v>31700</v>
       </c>
       <c r="H42" s="3">
-        <v>36700</v>
+        <v>37700</v>
       </c>
       <c r="I42" s="3">
-        <v>40000</v>
+        <v>41100</v>
       </c>
       <c r="J42" s="3">
-        <v>45600</v>
+        <v>46800</v>
       </c>
       <c r="K42" s="3">
         <v>42600</v>
@@ -1816,7 +1816,7 @@
         <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G43" s="3">
         <v>1200</v>
@@ -1825,10 +1825,10 @@
         <v>2500</v>
       </c>
       <c r="I43" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K43" s="3">
         <v>14900</v>
@@ -1891,7 +1891,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
@@ -1900,7 +1900,7 @@
         <v>1200</v>
       </c>
       <c r="J45" s="3">
-        <v>22800</v>
+        <v>23400</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="E46" s="3">
-        <v>27600</v>
+        <v>28300</v>
       </c>
       <c r="F46" s="3">
-        <v>36700</v>
+        <v>37600</v>
       </c>
       <c r="G46" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="H46" s="3">
-        <v>40700</v>
+        <v>41800</v>
       </c>
       <c r="I46" s="3">
-        <v>45800</v>
+        <v>47000</v>
       </c>
       <c r="J46" s="3">
-        <v>71900</v>
+        <v>73800</v>
       </c>
       <c r="K46" s="3">
         <v>64400</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H47" s="3">
         <v>1200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="E54" s="3">
-        <v>27700</v>
+        <v>28400</v>
       </c>
       <c r="F54" s="3">
-        <v>36800</v>
+        <v>37700</v>
       </c>
       <c r="G54" s="3">
-        <v>38300</v>
+        <v>39300</v>
       </c>
       <c r="H54" s="3">
-        <v>42000</v>
+        <v>43100</v>
       </c>
       <c r="I54" s="3">
-        <v>45800</v>
+        <v>47000</v>
       </c>
       <c r="J54" s="3">
-        <v>72000</v>
+        <v>73900</v>
       </c>
       <c r="K54" s="3">
         <v>99200</v>
@@ -2283,13 +2283,13 @@
         <v>1100</v>
       </c>
       <c r="G57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -2352,19 +2352,19 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I59" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J59" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K59" s="3">
         <v>4200</v>
@@ -2388,19 +2388,19 @@
         <v>1100</v>
       </c>
       <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1800</v>
       </c>
       <c r="H60" s="3">
         <v>2200</v>
       </c>
       <c r="I60" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J60" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K60" s="3">
         <v>6100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G66" s="3">
         <v>2000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>2300</v>
       </c>
       <c r="I66" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J66" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K66" s="3">
         <v>11000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-150600</v>
+        <v>-154500</v>
       </c>
       <c r="E72" s="3">
-        <v>-144900</v>
+        <v>-148600</v>
       </c>
       <c r="F72" s="3">
-        <v>-141100</v>
+        <v>-144700</v>
       </c>
       <c r="G72" s="3">
-        <v>-137700</v>
+        <v>-141300</v>
       </c>
       <c r="H72" s="3">
-        <v>-130200</v>
+        <v>-133600</v>
       </c>
       <c r="I72" s="3">
-        <v>-127700</v>
+        <v>-131000</v>
       </c>
       <c r="J72" s="3">
-        <v>-101200</v>
+        <v>-103900</v>
       </c>
       <c r="K72" s="3">
         <v>-78100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="E76" s="3">
-        <v>26600</v>
+        <v>27300</v>
       </c>
       <c r="F76" s="3">
-        <v>34800</v>
+        <v>35700</v>
       </c>
       <c r="G76" s="3">
-        <v>36400</v>
+        <v>37400</v>
       </c>
       <c r="H76" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="I76" s="3">
-        <v>42400</v>
+        <v>43500</v>
       </c>
       <c r="J76" s="3">
-        <v>68600</v>
+        <v>70400</v>
       </c>
       <c r="K76" s="3">
         <v>88200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E81" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F81" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G81" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="H81" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I81" s="3">
-        <v>-26500</v>
+        <v>-27200</v>
       </c>
       <c r="J81" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="K81" s="3">
         <v>-800</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F89" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="G89" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="H89" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I89" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J89" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K89" s="3">
         <v>-5900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E94" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F94" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G94" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H94" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I94" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J94" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="K94" s="3">
         <v>9500</v>
@@ -3759,13 +3759,13 @@
         <v>200</v>
       </c>
       <c r="H102" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J102" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K102" s="3">
         <v>3600</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -729,16 +729,16 @@
         <v>800</v>
       </c>
       <c r="G8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H8" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I8" s="3">
         <v>2800</v>
       </c>
       <c r="J8" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K8" s="3">
         <v>17100</v>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K9" s="3">
         <v>2600</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E17" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F17" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G17" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="H17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
-        <v>4500</v>
-      </c>
       <c r="J17" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="K17" s="3">
         <v>19100</v>
@@ -1037,16 +1037,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E18" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="F18" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="G18" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="H18" s="3">
         <v>-3500</v>
@@ -1095,7 +1095,7 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E21" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F21" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G21" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="H21" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I21" s="3">
         <v>-1700</v>
       </c>
       <c r="J21" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="K21" s="3">
         <v>4300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E23" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F23" s="3">
         <v>-3500</v>
       </c>
       <c r="G23" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="H23" s="3">
         <v>-3600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J23" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K23" s="3">
         <v>1600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F26" s="3">
         <v>-3500</v>
       </c>
       <c r="G26" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="H26" s="3">
         <v>-3600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J26" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K26" s="3">
         <v>1600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E27" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F27" s="3">
         <v>-3500</v>
       </c>
       <c r="G27" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="H27" s="3">
         <v>-3600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J27" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
@@ -1428,10 +1428,10 @@
         <v>1000</v>
       </c>
       <c r="I29" s="3">
-        <v>-25500</v>
+        <v>-26100</v>
       </c>
       <c r="J29" s="3">
-        <v>-21500</v>
+        <v>-22000</v>
       </c>
       <c r="K29" s="3">
         <v>-2500</v>
@@ -1527,7 +1527,7 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E33" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F33" s="3">
         <v>-3500</v>
       </c>
       <c r="G33" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="H33" s="3">
         <v>-2600</v>
       </c>
       <c r="I33" s="3">
-        <v>-27200</v>
+        <v>-27900</v>
       </c>
       <c r="J33" s="3">
-        <v>-22300</v>
+        <v>-22900</v>
       </c>
       <c r="K33" s="3">
         <v>-800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E35" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F35" s="3">
         <v>-3500</v>
       </c>
       <c r="G35" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="H35" s="3">
         <v>-2600</v>
       </c>
       <c r="I35" s="3">
-        <v>-27200</v>
+        <v>-27900</v>
       </c>
       <c r="J35" s="3">
-        <v>-22300</v>
+        <v>-22900</v>
       </c>
       <c r="K35" s="3">
         <v>-800</v>
@@ -1738,13 +1738,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F41" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
@@ -1753,7 +1753,7 @@
         <v>1200</v>
       </c>
       <c r="I41" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J41" s="3">
         <v>1700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="E42" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="F42" s="3">
-        <v>29700</v>
+        <v>30400</v>
       </c>
       <c r="G42" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="H42" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="I42" s="3">
-        <v>41100</v>
+        <v>42000</v>
       </c>
       <c r="J42" s="3">
-        <v>46800</v>
+        <v>47900</v>
       </c>
       <c r="K42" s="3">
         <v>42600</v>
@@ -1813,19 +1813,19 @@
         <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G43" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I43" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
         <v>1900</v>
@@ -1897,10 +1897,10 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="E46" s="3">
-        <v>28300</v>
+        <v>29000</v>
       </c>
       <c r="F46" s="3">
-        <v>37600</v>
+        <v>38500</v>
       </c>
       <c r="G46" s="3">
-        <v>33700</v>
+        <v>34500</v>
       </c>
       <c r="H46" s="3">
-        <v>41800</v>
+        <v>42700</v>
       </c>
       <c r="I46" s="3">
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="J46" s="3">
-        <v>73800</v>
+        <v>75400</v>
       </c>
       <c r="K46" s="3">
         <v>64400</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H47" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22300</v>
+        <v>22800</v>
       </c>
       <c r="E54" s="3">
-        <v>28400</v>
+        <v>29100</v>
       </c>
       <c r="F54" s="3">
-        <v>37700</v>
+        <v>38600</v>
       </c>
       <c r="G54" s="3">
-        <v>39300</v>
+        <v>40200</v>
       </c>
       <c r="H54" s="3">
-        <v>43100</v>
+        <v>44000</v>
       </c>
       <c r="I54" s="3">
-        <v>47000</v>
+        <v>48100</v>
       </c>
       <c r="J54" s="3">
-        <v>73900</v>
+        <v>75500</v>
       </c>
       <c r="K54" s="3">
         <v>99200</v>
@@ -2292,7 +2292,7 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
@@ -2361,7 +2361,7 @@
         <v>1400</v>
       </c>
       <c r="I59" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J59" s="3">
         <v>3500</v>
@@ -2382,7 +2382,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1100</v>
@@ -2394,13 +2394,13 @@
         <v>1900</v>
       </c>
       <c r="H60" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I60" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J60" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K60" s="3">
         <v>6100</v>
@@ -2610,7 +2610,7 @@
         <v>2000</v>
       </c>
       <c r="H66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I66" s="3">
         <v>3500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-154500</v>
+        <v>-158000</v>
       </c>
       <c r="E72" s="3">
-        <v>-148600</v>
+        <v>-152000</v>
       </c>
       <c r="F72" s="3">
-        <v>-144700</v>
+        <v>-148000</v>
       </c>
       <c r="G72" s="3">
-        <v>-141300</v>
+        <v>-144400</v>
       </c>
       <c r="H72" s="3">
-        <v>-133600</v>
+        <v>-136600</v>
       </c>
       <c r="I72" s="3">
-        <v>-131000</v>
+        <v>-134000</v>
       </c>
       <c r="J72" s="3">
-        <v>-103900</v>
+        <v>-106200</v>
       </c>
       <c r="K72" s="3">
         <v>-78100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20800</v>
+        <v>21300</v>
       </c>
       <c r="E76" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="F76" s="3">
-        <v>35700</v>
+        <v>36500</v>
       </c>
       <c r="G76" s="3">
-        <v>37400</v>
+        <v>38200</v>
       </c>
       <c r="H76" s="3">
-        <v>40700</v>
+        <v>41700</v>
       </c>
       <c r="I76" s="3">
-        <v>43500</v>
+        <v>44500</v>
       </c>
       <c r="J76" s="3">
-        <v>70400</v>
+        <v>72000</v>
       </c>
       <c r="K76" s="3">
         <v>88200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E81" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F81" s="3">
         <v>-3500</v>
       </c>
       <c r="G81" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="H81" s="3">
         <v>-2600</v>
       </c>
       <c r="I81" s="3">
-        <v>-27200</v>
+        <v>-27900</v>
       </c>
       <c r="J81" s="3">
-        <v>-22300</v>
+        <v>-22900</v>
       </c>
       <c r="K81" s="3">
         <v>-800</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
@@ -3319,22 +3319,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E89" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F89" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="G89" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="H89" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I89" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="J89" s="3">
         <v>2500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E94" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F94" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G94" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H94" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I94" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="K94" s="3">
         <v>9500</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3765,7 +3765,7 @@
         <v>-1700</v>
       </c>
       <c r="J102" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K102" s="3">
         <v>3600</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J8" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="K8" s="3">
         <v>17100</v>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K9" s="3">
         <v>2600</v>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K10" s="3">
         <v>14500</v>
@@ -853,7 +853,7 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>9600</v>
+        <v>8800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="E17" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="F17" s="3">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="G17" s="3">
-        <v>9100</v>
+        <v>8400</v>
       </c>
       <c r="H17" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="I17" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="J17" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="K17" s="3">
         <v>19100</v>
@@ -1037,22 +1037,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6000</v>
+        <v>-5500</v>
       </c>
       <c r="E18" s="3">
-        <v>-4500</v>
+        <v>-4100</v>
       </c>
       <c r="F18" s="3">
-        <v>-8600</v>
+        <v>-7900</v>
       </c>
       <c r="G18" s="3">
-        <v>-7800</v>
+        <v>-7200</v>
       </c>
       <c r="H18" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="I18" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J18" s="3">
         <v>-900</v>
@@ -1092,10 +1092,10 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5800</v>
+        <v>-5300</v>
       </c>
       <c r="E21" s="3">
-        <v>-4000</v>
+        <v>-3600</v>
       </c>
       <c r="F21" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="G21" s="3">
-        <v>-7900</v>
+        <v>-7300</v>
       </c>
       <c r="H21" s="3">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="I21" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J21" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="K21" s="3">
         <v>4300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="E23" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G23" s="3">
-        <v>-7900</v>
+        <v>-7300</v>
       </c>
       <c r="H23" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="J23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>1600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="E26" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F26" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G26" s="3">
-        <v>-7900</v>
+        <v>-7300</v>
       </c>
       <c r="H26" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="J26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>1600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="E27" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F27" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G27" s="3">
-        <v>-7900</v>
+        <v>-7300</v>
       </c>
       <c r="H27" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="I27" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="J27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
@@ -1425,13 +1425,13 @@
         <v>100</v>
       </c>
       <c r="H29" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I29" s="3">
-        <v>-26100</v>
+        <v>-24100</v>
       </c>
       <c r="J29" s="3">
-        <v>-22000</v>
+        <v>-20300</v>
       </c>
       <c r="K29" s="3">
         <v>-2500</v>
@@ -1524,10 +1524,10 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5000</v>
+        <v>-4600</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="E33" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F33" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G33" s="3">
-        <v>-7800</v>
+        <v>-7200</v>
       </c>
       <c r="H33" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>-27900</v>
+        <v>-25700</v>
       </c>
       <c r="J33" s="3">
-        <v>-22900</v>
+        <v>-21100</v>
       </c>
       <c r="K33" s="3">
         <v>-800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="E35" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F35" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G35" s="3">
-        <v>-7800</v>
+        <v>-7200</v>
       </c>
       <c r="H35" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>-27900</v>
+        <v>-25700</v>
       </c>
       <c r="J35" s="3">
-        <v>-22900</v>
+        <v>-21100</v>
       </c>
       <c r="K35" s="3">
         <v>-800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="F41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>700</v>
+      </c>
+      <c r="J41" s="3">
         <v>1600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1700</v>
       </c>
       <c r="K41" s="3">
         <v>4000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19600</v>
+        <v>18100</v>
       </c>
       <c r="E42" s="3">
-        <v>25100</v>
+        <v>23200</v>
       </c>
       <c r="F42" s="3">
-        <v>30400</v>
+        <v>28000</v>
       </c>
       <c r="G42" s="3">
-        <v>32400</v>
+        <v>29900</v>
       </c>
       <c r="H42" s="3">
-        <v>38500</v>
+        <v>35500</v>
       </c>
       <c r="I42" s="3">
-        <v>42000</v>
+        <v>38700</v>
       </c>
       <c r="J42" s="3">
-        <v>47900</v>
+        <v>44100</v>
       </c>
       <c r="K42" s="3">
         <v>42600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="G43" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H43" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I43" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="J43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K43" s="3">
         <v>14900</v>
@@ -1891,16 +1891,16 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J45" s="3">
-        <v>23900</v>
+        <v>22100</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22500</v>
+        <v>20800</v>
       </c>
       <c r="E46" s="3">
-        <v>29000</v>
+        <v>26700</v>
       </c>
       <c r="F46" s="3">
-        <v>38500</v>
+        <v>35500</v>
       </c>
       <c r="G46" s="3">
-        <v>34500</v>
+        <v>31800</v>
       </c>
       <c r="H46" s="3">
-        <v>42700</v>
+        <v>39400</v>
       </c>
       <c r="I46" s="3">
-        <v>48000</v>
+        <v>44300</v>
       </c>
       <c r="J46" s="3">
-        <v>75400</v>
+        <v>69600</v>
       </c>
       <c r="K46" s="3">
         <v>64400</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22800</v>
+        <v>21000</v>
       </c>
       <c r="E54" s="3">
-        <v>29100</v>
+        <v>26800</v>
       </c>
       <c r="F54" s="3">
-        <v>38600</v>
+        <v>35600</v>
       </c>
       <c r="G54" s="3">
-        <v>40200</v>
+        <v>37100</v>
       </c>
       <c r="H54" s="3">
-        <v>44000</v>
+        <v>40600</v>
       </c>
       <c r="I54" s="3">
-        <v>48100</v>
+        <v>44300</v>
       </c>
       <c r="J54" s="3">
-        <v>75500</v>
+        <v>69600</v>
       </c>
       <c r="K54" s="3">
         <v>99200</v>
@@ -2280,19 +2280,19 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
@@ -2352,19 +2352,19 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="J59" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K59" s="3">
         <v>4200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G60" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H60" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="I60" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="J60" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="K60" s="3">
         <v>6100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G66" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="I66" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="J66" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K66" s="3">
         <v>11000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-158000</v>
+        <v>-145700</v>
       </c>
       <c r="E72" s="3">
-        <v>-152000</v>
+        <v>-140100</v>
       </c>
       <c r="F72" s="3">
-        <v>-148000</v>
+        <v>-136500</v>
       </c>
       <c r="G72" s="3">
-        <v>-144400</v>
+        <v>-133200</v>
       </c>
       <c r="H72" s="3">
-        <v>-136600</v>
+        <v>-126000</v>
       </c>
       <c r="I72" s="3">
-        <v>-134000</v>
+        <v>-123500</v>
       </c>
       <c r="J72" s="3">
-        <v>-106200</v>
+        <v>-98000</v>
       </c>
       <c r="K72" s="3">
         <v>-78100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21300</v>
+        <v>19600</v>
       </c>
       <c r="E76" s="3">
-        <v>27900</v>
+        <v>25800</v>
       </c>
       <c r="F76" s="3">
-        <v>36500</v>
+        <v>33600</v>
       </c>
       <c r="G76" s="3">
-        <v>38200</v>
+        <v>35200</v>
       </c>
       <c r="H76" s="3">
-        <v>41700</v>
+        <v>38400</v>
       </c>
       <c r="I76" s="3">
-        <v>44500</v>
+        <v>41100</v>
       </c>
       <c r="J76" s="3">
-        <v>72000</v>
+        <v>66400</v>
       </c>
       <c r="K76" s="3">
         <v>88200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="E81" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F81" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G81" s="3">
-        <v>-7800</v>
+        <v>-7200</v>
       </c>
       <c r="H81" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>-27900</v>
+        <v>-25700</v>
       </c>
       <c r="J81" s="3">
-        <v>-22900</v>
+        <v>-21100</v>
       </c>
       <c r="K81" s="3">
         <v>-800</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>14800</v>
+        <v>13700</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5300</v>
+        <v>-4900</v>
       </c>
       <c r="E89" s="3">
-        <v>-5400</v>
+        <v>-5000</v>
       </c>
       <c r="F89" s="3">
-        <v>-8300</v>
+        <v>-7700</v>
       </c>
       <c r="G89" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="H89" s="3">
-        <v>-5000</v>
+        <v>-4600</v>
       </c>
       <c r="I89" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="J89" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K89" s="3">
         <v>-5900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E94" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="F94" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="G94" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="H94" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="I94" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="J94" s="3">
-        <v>-6800</v>
+        <v>-6200</v>
       </c>
       <c r="K94" s="3">
         <v>9500</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3747,7 +3747,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
         <v>500</v>
@@ -3759,13 +3759,13 @@
         <v>200</v>
       </c>
       <c r="H102" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J102" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="K102" s="3">
         <v>3600</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40724</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>1200</v>
       </c>
       <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,21 +779,24 @@
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,21 +818,24 @@
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,17 +925,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>-100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -933,30 +952,33 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -970,20 +992,23 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1188,47 +1227,53 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1262,9 +1307,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,33 +1478,36 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>900</v>
       </c>
-      <c r="I29" s="3">
-        <v>-24100</v>
-      </c>
       <c r="J29" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-20300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-13400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-13600</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40724</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,133 +1817,143 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E42" s="3">
         <v>18100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28000</v>
       </c>
-      <c r="G42" s="3">
-        <v>29900</v>
-      </c>
       <c r="H42" s="3">
+        <v>29800</v>
+      </c>
+      <c r="I42" s="3">
         <v>35500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>38700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>44100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>59500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>74000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -1867,115 +1962,124 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E46" s="3">
         <v>20800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31800</v>
       </c>
-      <c r="H46" s="3">
-        <v>39400</v>
-      </c>
       <c r="I46" s="3">
-        <v>44300</v>
+        <v>39300</v>
       </c>
       <c r="J46" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K46" s="3">
         <v>69600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>92300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>700</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>5200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -1983,17 +2087,20 @@
       <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>100</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2005,23 +2112,26 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2034,8 +2144,8 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2047,17 +2157,20 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>14900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,9 +2243,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2142,8 +2261,8 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2163,9 +2282,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E54" s="3">
         <v>21000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26800</v>
       </c>
-      <c r="F54" s="3">
-        <v>35600</v>
-      </c>
       <c r="G54" s="3">
-        <v>37100</v>
+        <v>35500</v>
       </c>
       <c r="H54" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I54" s="3">
         <v>40600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>69600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>99200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,52 +2397,56 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
@@ -2330,8 +2463,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2339,17 +2472,20 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
@@ -2358,26 +2494,29 @@
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2385,35 +2524,38 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1800</v>
       </c>
       <c r="G60" s="3">
         <v>1800</v>
       </c>
       <c r="H60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2447,9 +2589,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2460,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2475,17 +2620,20 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,9 +2745,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2601,35 +2758,38 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1900</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I66" s="3">
         <v>2200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3300</v>
       </c>
       <c r="J66" s="3">
         <v>3300</v>
       </c>
       <c r="K66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L66" s="3">
         <v>11000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-145700</v>
+        <v>-150300</v>
       </c>
       <c r="E72" s="3">
-        <v>-140100</v>
+        <v>-145600</v>
       </c>
       <c r="F72" s="3">
-        <v>-136500</v>
+        <v>-140000</v>
       </c>
       <c r="G72" s="3">
-        <v>-133200</v>
+        <v>-136400</v>
       </c>
       <c r="H72" s="3">
-        <v>-126000</v>
+        <v>-133100</v>
       </c>
       <c r="I72" s="3">
-        <v>-123500</v>
+        <v>-125800</v>
       </c>
       <c r="J72" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-98000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E76" s="3">
         <v>19600</v>
       </c>
-      <c r="E76" s="3">
-        <v>25800</v>
-      </c>
       <c r="F76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G76" s="3">
         <v>33600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38400</v>
       </c>
-      <c r="I76" s="3">
-        <v>41100</v>
-      </c>
       <c r="J76" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K76" s="3">
         <v>66400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>88200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>113000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40724</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,17 +3294,18 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3121,20 +3319,23 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>13700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3700</v>
       </c>
-      <c r="E94" s="3">
-        <v>5500</v>
-      </c>
       <c r="F94" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G94" s="3">
         <v>7800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,26 +3910,29 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3701,12 +3946,15 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3732,51 +3980,57 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -741,7 +741,7 @@
         <v>1200</v>
       </c>
       <c r="J8" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K8" s="3">
         <v>5100</v>
@@ -869,7 +869,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E17" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="F17" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G17" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="H17" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="I17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J17" s="3">
         <v>4400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4300</v>
       </c>
       <c r="K17" s="3">
         <v>6000</v>
@@ -1069,16 +1069,16 @@
         <v>-3300</v>
       </c>
       <c r="E18" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F18" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="H18" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="I18" s="3">
         <v>-3300</v>
@@ -1128,10 +1128,10 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1161,22 +1161,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E21" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F21" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="G21" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H21" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="I21" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J21" s="3">
         <v>-1600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E23" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G23" s="3">
         <v>-3300</v>
       </c>
       <c r="H23" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="I23" s="3">
         <v>-3400</v>
       </c>
       <c r="J23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F26" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G26" s="3">
         <v>-3300</v>
       </c>
       <c r="H26" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="I26" s="3">
         <v>-3400</v>
       </c>
       <c r="J26" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F27" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G27" s="3">
         <v>-3300</v>
       </c>
       <c r="H27" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="I27" s="3">
         <v>-3400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K27" s="3">
         <v>-800</v>
@@ -1488,10 +1488,10 @@
         <v>100</v>
       </c>
       <c r="I29" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J29" s="3">
-        <v>-24000</v>
+        <v>-24500</v>
       </c>
       <c r="K29" s="3">
         <v>-20300</v>
@@ -1596,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F33" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G33" s="3">
         <v>-3300</v>
       </c>
       <c r="H33" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="I33" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J33" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K33" s="3">
         <v>-21100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F35" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G35" s="3">
         <v>-3300</v>
       </c>
       <c r="H35" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="I35" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J35" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K35" s="3">
         <v>-21100</v>
@@ -1824,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E41" s="3">
         <v>1200</v>
@@ -1833,13 +1833,13 @@
         <v>1900</v>
       </c>
       <c r="G41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J41" s="3">
         <v>700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E42" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="F42" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="G42" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="H42" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="I42" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="J42" s="3">
-        <v>38700</v>
+        <v>39500</v>
       </c>
       <c r="K42" s="3">
         <v>44100</v>
@@ -1905,13 +1905,13 @@
         <v>1900</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
       </c>
       <c r="G43" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H43" s="3">
         <v>1200</v>
@@ -1920,7 +1920,7 @@
         <v>2400</v>
       </c>
       <c r="J43" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K43" s="3">
         <v>1800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="E46" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="F46" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="G46" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="H46" s="3">
-        <v>31800</v>
+        <v>32500</v>
       </c>
       <c r="I46" s="3">
-        <v>39300</v>
+        <v>40200</v>
       </c>
       <c r="J46" s="3">
-        <v>44200</v>
+        <v>45200</v>
       </c>
       <c r="K46" s="3">
         <v>69600</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I47" s="3">
         <v>1200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="E54" s="3">
-        <v>21000</v>
+        <v>21400</v>
       </c>
       <c r="F54" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="G54" s="3">
-        <v>35500</v>
+        <v>36300</v>
       </c>
       <c r="H54" s="3">
-        <v>37000</v>
+        <v>37800</v>
       </c>
       <c r="I54" s="3">
-        <v>40600</v>
+        <v>41400</v>
       </c>
       <c r="J54" s="3">
-        <v>44300</v>
+        <v>45200</v>
       </c>
       <c r="K54" s="3">
         <v>69600</v>
@@ -2413,7 +2413,7 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
@@ -2482,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -2500,7 +2500,7 @@
         <v>1300</v>
       </c>
       <c r="J59" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -2524,19 +2524,19 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G60" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H60" s="3">
         <v>1800</v>
       </c>
       <c r="I60" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J60" s="3">
         <v>3200</v>
@@ -2764,7 +2764,7 @@
         <v>1100</v>
       </c>
       <c r="G66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H66" s="3">
         <v>1900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-150300</v>
+        <v>-153400</v>
       </c>
       <c r="E72" s="3">
-        <v>-145600</v>
+        <v>-148600</v>
       </c>
       <c r="F72" s="3">
-        <v>-140000</v>
+        <v>-143000</v>
       </c>
       <c r="G72" s="3">
-        <v>-136400</v>
+        <v>-139200</v>
       </c>
       <c r="H72" s="3">
-        <v>-133100</v>
+        <v>-135900</v>
       </c>
       <c r="I72" s="3">
-        <v>-125800</v>
+        <v>-128500</v>
       </c>
       <c r="J72" s="3">
-        <v>-123400</v>
+        <v>-126000</v>
       </c>
       <c r="K72" s="3">
         <v>-98000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="E76" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="F76" s="3">
-        <v>25700</v>
+        <v>26300</v>
       </c>
       <c r="G76" s="3">
-        <v>33600</v>
+        <v>34300</v>
       </c>
       <c r="H76" s="3">
-        <v>35200</v>
+        <v>35900</v>
       </c>
       <c r="I76" s="3">
-        <v>38400</v>
+        <v>39200</v>
       </c>
       <c r="J76" s="3">
-        <v>41000</v>
+        <v>41900</v>
       </c>
       <c r="K76" s="3">
         <v>66400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F81" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G81" s="3">
         <v>-3300</v>
       </c>
       <c r="H81" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="I81" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J81" s="3">
-        <v>-25700</v>
+        <v>-26200</v>
       </c>
       <c r="K81" s="3">
         <v>-21100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E89" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="F89" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="G89" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="H89" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J89" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K89" s="3">
         <v>2300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E94" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F94" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G94" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H94" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I94" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J94" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K94" s="3">
         <v>-6200</v>
@@ -3998,10 +3998,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F102" s="3">
         <v>500</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
@@ -732,16 +732,16 @@
         <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H8" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I8" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J8" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K8" s="3">
         <v>5100</v>
@@ -869,7 +869,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E17" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="F17" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G17" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="H17" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="I17" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="J17" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K17" s="3">
         <v>6000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E18" s="3">
-        <v>-5600</v>
+        <v>-5300</v>
       </c>
       <c r="F18" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="G18" s="3">
-        <v>-8100</v>
+        <v>-7600</v>
       </c>
       <c r="H18" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="I18" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K18" s="3">
         <v>-900</v>
@@ -1122,16 +1122,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="E21" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="F21" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="G21" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H21" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="I21" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="J21" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K21" s="3">
         <v>13000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E23" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="F23" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G23" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H23" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="I23" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="J23" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E26" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="F26" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G26" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H26" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="I26" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="J26" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E27" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="F27" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G27" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H27" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="I27" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="J27" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K27" s="3">
         <v>-800</v>
@@ -1488,10 +1488,10 @@
         <v>100</v>
       </c>
       <c r="I29" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J29" s="3">
-        <v>-24500</v>
+        <v>-23100</v>
       </c>
       <c r="K29" s="3">
         <v>-20300</v>
@@ -1590,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E33" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="F33" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G33" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H33" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="I33" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="J33" s="3">
-        <v>-26200</v>
+        <v>-24600</v>
       </c>
       <c r="K33" s="3">
         <v>-21100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E35" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="F35" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G35" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H35" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="I35" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="J35" s="3">
-        <v>-26200</v>
+        <v>-24600</v>
       </c>
       <c r="K35" s="3">
         <v>-21100</v>
@@ -1824,22 +1824,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G41" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J41" s="3">
         <v>700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="E42" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="F42" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="G42" s="3">
-        <v>28600</v>
+        <v>26900</v>
       </c>
       <c r="H42" s="3">
-        <v>30500</v>
+        <v>28700</v>
       </c>
       <c r="I42" s="3">
-        <v>36200</v>
+        <v>34100</v>
       </c>
       <c r="J42" s="3">
-        <v>39500</v>
+        <v>37100</v>
       </c>
       <c r="K42" s="3">
         <v>44100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
-        <v>1400</v>
-      </c>
       <c r="G43" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J43" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K43" s="3">
         <v>1800</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -1998,7 +1998,7 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>22100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16600</v>
+        <v>15600</v>
       </c>
       <c r="E46" s="3">
-        <v>21200</v>
+        <v>19900</v>
       </c>
       <c r="F46" s="3">
-        <v>27300</v>
+        <v>25600</v>
       </c>
       <c r="G46" s="3">
-        <v>36200</v>
+        <v>34000</v>
       </c>
       <c r="H46" s="3">
-        <v>32500</v>
+        <v>30500</v>
       </c>
       <c r="I46" s="3">
-        <v>40200</v>
+        <v>37800</v>
       </c>
       <c r="J46" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="K46" s="3">
         <v>69600</v>
@@ -2058,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
@@ -2070,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="I47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="E54" s="3">
-        <v>21400</v>
+        <v>20100</v>
       </c>
       <c r="F54" s="3">
-        <v>27400</v>
+        <v>25700</v>
       </c>
       <c r="G54" s="3">
-        <v>36300</v>
+        <v>34100</v>
       </c>
       <c r="H54" s="3">
-        <v>37800</v>
+        <v>35600</v>
       </c>
       <c r="I54" s="3">
-        <v>41400</v>
+        <v>38900</v>
       </c>
       <c r="J54" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="K54" s="3">
         <v>69600</v>
@@ -2413,7 +2413,7 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J59" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H60" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I60" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="J60" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K60" s="3">
         <v>3800</v>
@@ -2758,22 +2758,22 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G66" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I66" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J66" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K66" s="3">
         <v>3300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-153400</v>
+        <v>-144300</v>
       </c>
       <c r="E72" s="3">
-        <v>-148600</v>
+        <v>-139700</v>
       </c>
       <c r="F72" s="3">
-        <v>-143000</v>
+        <v>-134400</v>
       </c>
       <c r="G72" s="3">
-        <v>-139200</v>
+        <v>-130900</v>
       </c>
       <c r="H72" s="3">
-        <v>-135900</v>
+        <v>-127700</v>
       </c>
       <c r="I72" s="3">
-        <v>-128500</v>
+        <v>-120800</v>
       </c>
       <c r="J72" s="3">
-        <v>-126000</v>
+        <v>-118500</v>
       </c>
       <c r="K72" s="3">
         <v>-98000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16100</v>
+        <v>15100</v>
       </c>
       <c r="E76" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="F76" s="3">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="G76" s="3">
-        <v>34300</v>
+        <v>32300</v>
       </c>
       <c r="H76" s="3">
-        <v>35900</v>
+        <v>33800</v>
       </c>
       <c r="I76" s="3">
-        <v>39200</v>
+        <v>36800</v>
       </c>
       <c r="J76" s="3">
-        <v>41900</v>
+        <v>39400</v>
       </c>
       <c r="K76" s="3">
         <v>66400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E81" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="F81" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G81" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H81" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="I81" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="J81" s="3">
-        <v>-26200</v>
+        <v>-24600</v>
       </c>
       <c r="K81" s="3">
         <v>-21100</v>
@@ -3304,7 +3304,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="E89" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="F89" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="G89" s="3">
-        <v>-7800</v>
+        <v>-7400</v>
       </c>
       <c r="H89" s="3">
-        <v>-6600</v>
+        <v>-6200</v>
       </c>
       <c r="I89" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="J89" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="K89" s="3">
         <v>2300</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="E94" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="F94" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="G94" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="H94" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="I94" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J94" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="K94" s="3">
         <v>-6200</v>
@@ -3923,7 +3923,7 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
@@ -3998,13 +3998,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
@@ -4016,7 +4016,7 @@
         <v>400</v>
       </c>
       <c r="J102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K102" s="3">
         <v>-4000</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -741,7 +741,7 @@
         <v>1100</v>
       </c>
       <c r="J8" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K8" s="3">
         <v>5100</v>
@@ -1030,22 +1030,22 @@
         <v>4600</v>
       </c>
       <c r="E17" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F17" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G17" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="I17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J17" s="3">
         <v>4200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4100</v>
       </c>
       <c r="K17" s="3">
         <v>6000</v>
@@ -1066,22 +1066,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E18" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F18" s="3">
         <v>-4000</v>
       </c>
       <c r="G18" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="H18" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="I18" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J18" s="3">
         <v>-1600</v>
@@ -1131,7 +1131,7 @@
         <v>400</v>
       </c>
       <c r="G20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E21" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="F21" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G21" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H21" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="I21" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K21" s="3">
         <v>13000</v>
@@ -1239,22 +1239,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E23" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F23" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G23" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H23" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="I23" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J23" s="3">
         <v>-1600</v>
@@ -1356,22 +1356,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E26" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F26" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G26" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H26" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="I26" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J26" s="3">
         <v>-1600</v>
@@ -1395,22 +1395,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F27" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G27" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H27" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="I27" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J27" s="3">
         <v>-1600</v>
@@ -1491,7 +1491,7 @@
         <v>900</v>
       </c>
       <c r="J29" s="3">
-        <v>-23100</v>
+        <v>-23500</v>
       </c>
       <c r="K29" s="3">
         <v>-20300</v>
@@ -1599,7 +1599,7 @@
         <v>-400</v>
       </c>
       <c r="G32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F33" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G33" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H33" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="I33" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J33" s="3">
-        <v>-24600</v>
+        <v>-25100</v>
       </c>
       <c r="K33" s="3">
         <v>-21100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F35" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G35" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H35" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="I35" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J35" s="3">
-        <v>-24600</v>
+        <v>-25100</v>
       </c>
       <c r="K35" s="3">
         <v>-21100</v>
@@ -1824,13 +1824,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E41" s="3">
         <v>1100</v>
       </c>
       <c r="F41" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G41" s="3">
         <v>1400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="E42" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="F42" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="G42" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="H42" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="I42" s="3">
-        <v>34100</v>
+        <v>34700</v>
       </c>
       <c r="J42" s="3">
-        <v>37100</v>
+        <v>37800</v>
       </c>
       <c r="K42" s="3">
         <v>44100</v>
@@ -1911,7 +1911,7 @@
         <v>1300</v>
       </c>
       <c r="G43" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H43" s="3">
         <v>1100</v>
@@ -1920,7 +1920,7 @@
         <v>2300</v>
       </c>
       <c r="J43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K43" s="3">
         <v>1800</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="E46" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="F46" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="G46" s="3">
-        <v>34000</v>
+        <v>34700</v>
       </c>
       <c r="H46" s="3">
-        <v>30500</v>
+        <v>31100</v>
       </c>
       <c r="I46" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="J46" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="K46" s="3">
         <v>69600</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I47" s="3">
         <v>1100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="E54" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="F54" s="3">
-        <v>25700</v>
+        <v>26200</v>
       </c>
       <c r="G54" s="3">
-        <v>34100</v>
+        <v>34800</v>
       </c>
       <c r="H54" s="3">
-        <v>35600</v>
+        <v>36200</v>
       </c>
       <c r="I54" s="3">
-        <v>38900</v>
+        <v>39600</v>
       </c>
       <c r="J54" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="K54" s="3">
         <v>69600</v>
@@ -2500,7 +2500,7 @@
         <v>1200</v>
       </c>
       <c r="J59" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -2536,7 +2536,7 @@
         <v>1700</v>
       </c>
       <c r="I60" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J60" s="3">
         <v>3100</v>
@@ -2773,7 +2773,7 @@
         <v>2100</v>
       </c>
       <c r="J66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K66" s="3">
         <v>3300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-144300</v>
+        <v>-146900</v>
       </c>
       <c r="E72" s="3">
-        <v>-139700</v>
+        <v>-142300</v>
       </c>
       <c r="F72" s="3">
-        <v>-134400</v>
+        <v>-136900</v>
       </c>
       <c r="G72" s="3">
-        <v>-130900</v>
+        <v>-133300</v>
       </c>
       <c r="H72" s="3">
-        <v>-127700</v>
+        <v>-130100</v>
       </c>
       <c r="I72" s="3">
-        <v>-120800</v>
+        <v>-123000</v>
       </c>
       <c r="J72" s="3">
-        <v>-118500</v>
+        <v>-120700</v>
       </c>
       <c r="K72" s="3">
         <v>-98000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="E76" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="F76" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="G76" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="H76" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="I76" s="3">
-        <v>36800</v>
+        <v>37500</v>
       </c>
       <c r="J76" s="3">
-        <v>39400</v>
+        <v>40100</v>
       </c>
       <c r="K76" s="3">
         <v>66400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F81" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G81" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H81" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="I81" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J81" s="3">
-        <v>-24600</v>
+        <v>-25100</v>
       </c>
       <c r="K81" s="3">
         <v>-21100</v>
@@ -3538,22 +3538,22 @@
         <v>-3300</v>
       </c>
       <c r="E89" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="F89" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="G89" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="H89" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="I89" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="J89" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="K89" s="3">
         <v>2300</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E94" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F94" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G94" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H94" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I94" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J94" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K94" s="3">
         <v>-6200</v>
@@ -4004,7 +4004,7 @@
         <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -741,7 +741,7 @@
         <v>1100</v>
       </c>
       <c r="J8" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K8" s="3">
         <v>5100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E17" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="F17" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="G17" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="H17" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="I17" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J17" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K17" s="3">
         <v>6000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="F18" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="G18" s="3">
-        <v>-7700</v>
+        <v>-7300</v>
       </c>
       <c r="H18" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="I18" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="J18" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K18" s="3">
         <v>-900</v>
@@ -1131,7 +1131,7 @@
         <v>400</v>
       </c>
       <c r="G20" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="E21" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="F21" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G21" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H21" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="I21" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J21" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K21" s="3">
         <v>13000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F23" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G23" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H23" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="I23" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J23" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="E26" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F26" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G26" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H26" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="I26" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="E27" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F27" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G27" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H27" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="I27" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J27" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K27" s="3">
         <v>-800</v>
@@ -1491,7 +1491,7 @@
         <v>900</v>
       </c>
       <c r="J29" s="3">
-        <v>-23500</v>
+        <v>-22300</v>
       </c>
       <c r="K29" s="3">
         <v>-20300</v>
@@ -1599,7 +1599,7 @@
         <v>-400</v>
       </c>
       <c r="G32" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="E33" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F33" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G33" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H33" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="I33" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="J33" s="3">
-        <v>-25100</v>
+        <v>-23800</v>
       </c>
       <c r="K33" s="3">
         <v>-21100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="E35" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F35" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G35" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H35" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="I35" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="J35" s="3">
-        <v>-25100</v>
+        <v>-23800</v>
       </c>
       <c r="K35" s="3">
         <v>-21100</v>
@@ -1824,22 +1824,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E41" s="3">
         <v>1100</v>
       </c>
       <c r="F41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="3">
         <v>700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="E42" s="3">
-        <v>17700</v>
+        <v>16800</v>
       </c>
       <c r="F42" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="G42" s="3">
-        <v>27400</v>
+        <v>25900</v>
       </c>
       <c r="H42" s="3">
-        <v>29200</v>
+        <v>27700</v>
       </c>
       <c r="I42" s="3">
-        <v>34700</v>
+        <v>32900</v>
       </c>
       <c r="J42" s="3">
-        <v>37800</v>
+        <v>35800</v>
       </c>
       <c r="K42" s="3">
         <v>44100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1300</v>
       </c>
       <c r="G43" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="H43" s="3">
         <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J43" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K43" s="3">
         <v>1800</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15900</v>
+        <v>15100</v>
       </c>
       <c r="E46" s="3">
-        <v>20300</v>
+        <v>19200</v>
       </c>
       <c r="F46" s="3">
-        <v>26100</v>
+        <v>24700</v>
       </c>
       <c r="G46" s="3">
-        <v>34700</v>
+        <v>32900</v>
       </c>
       <c r="H46" s="3">
-        <v>31100</v>
+        <v>29500</v>
       </c>
       <c r="I46" s="3">
-        <v>38500</v>
+        <v>36500</v>
       </c>
       <c r="J46" s="3">
-        <v>43200</v>
+        <v>41000</v>
       </c>
       <c r="K46" s="3">
         <v>69600</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="I47" s="3">
         <v>1100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16800</v>
+        <v>15900</v>
       </c>
       <c r="E54" s="3">
-        <v>20500</v>
+        <v>19400</v>
       </c>
       <c r="F54" s="3">
-        <v>26200</v>
+        <v>24800</v>
       </c>
       <c r="G54" s="3">
-        <v>34800</v>
+        <v>32900</v>
       </c>
       <c r="H54" s="3">
-        <v>36200</v>
+        <v>34300</v>
       </c>
       <c r="I54" s="3">
-        <v>39600</v>
+        <v>37600</v>
       </c>
       <c r="J54" s="3">
-        <v>43300</v>
+        <v>41000</v>
       </c>
       <c r="K54" s="3">
         <v>69600</v>
@@ -2407,7 +2407,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2416,7 +2416,7 @@
         <v>1000</v>
       </c>
       <c r="H57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
@@ -2491,7 +2491,7 @@
         <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
@@ -2500,7 +2500,7 @@
         <v>1200</v>
       </c>
       <c r="J59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -2530,16 +2530,16 @@
         <v>1000</v>
       </c>
       <c r="G60" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H60" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I60" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J60" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K60" s="3">
         <v>3800</v>
@@ -2755,7 +2755,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
@@ -2764,16 +2764,16 @@
         <v>1000</v>
       </c>
       <c r="G66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H66" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I66" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J66" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K66" s="3">
         <v>3300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-146900</v>
+        <v>-139300</v>
       </c>
       <c r="E72" s="3">
-        <v>-142300</v>
+        <v>-134900</v>
       </c>
       <c r="F72" s="3">
-        <v>-136900</v>
+        <v>-129800</v>
       </c>
       <c r="G72" s="3">
-        <v>-133300</v>
+        <v>-126400</v>
       </c>
       <c r="H72" s="3">
-        <v>-130100</v>
+        <v>-123300</v>
       </c>
       <c r="I72" s="3">
-        <v>-123000</v>
+        <v>-116600</v>
       </c>
       <c r="J72" s="3">
-        <v>-120700</v>
+        <v>-114400</v>
       </c>
       <c r="K72" s="3">
         <v>-98000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15400</v>
+        <v>14600</v>
       </c>
       <c r="E76" s="3">
-        <v>19200</v>
+        <v>18200</v>
       </c>
       <c r="F76" s="3">
-        <v>25200</v>
+        <v>23800</v>
       </c>
       <c r="G76" s="3">
-        <v>32900</v>
+        <v>31200</v>
       </c>
       <c r="H76" s="3">
-        <v>34400</v>
+        <v>32600</v>
       </c>
       <c r="I76" s="3">
-        <v>37500</v>
+        <v>35600</v>
       </c>
       <c r="J76" s="3">
-        <v>40100</v>
+        <v>38000</v>
       </c>
       <c r="K76" s="3">
         <v>66400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="E81" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="F81" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G81" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H81" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="I81" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="J81" s="3">
-        <v>-25100</v>
+        <v>-23800</v>
       </c>
       <c r="K81" s="3">
         <v>-21100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E89" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="F89" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="G89" s="3">
-        <v>-7500</v>
+        <v>-7100</v>
       </c>
       <c r="H89" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="I89" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="J89" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="K89" s="3">
         <v>2300</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="E94" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F94" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G94" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="H94" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="I94" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J94" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K94" s="3">
         <v>-6200</v>
@@ -3998,13 +3998,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E102" s="3">
         <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
@@ -4016,7 +4016,7 @@
         <v>400</v>
       </c>
       <c r="J102" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K102" s="3">
         <v>-4000</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40724</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1100</v>
       </c>
       <c r="I8" s="3">
         <v>1100</v>
       </c>
       <c r="J8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,21 +788,24 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,21 +830,24 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,20 +944,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>-100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -955,32 +974,35 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -995,20 +1017,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
-        <v>5800</v>
-      </c>
       <c r="F17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8000</v>
       </c>
-      <c r="H17" s="3">
-        <v>7800</v>
-      </c>
       <c r="I17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-5200</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
-        <v>-6800</v>
-      </c>
       <c r="I21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1230,50 +1269,56 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1310,9 +1355,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,33 +1541,36 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-22300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-20300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-13400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-13600</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40724</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,125 +1903,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
-        <v>1800</v>
-      </c>
       <c r="G41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E42" s="3">
         <v>8900</v>
       </c>
-      <c r="E42" s="3">
-        <v>16800</v>
-      </c>
       <c r="F42" s="3">
-        <v>21500</v>
+        <v>16700</v>
       </c>
       <c r="G42" s="3">
-        <v>25900</v>
+        <v>21400</v>
       </c>
       <c r="H42" s="3">
-        <v>27700</v>
+        <v>25800</v>
       </c>
       <c r="I42" s="3">
-        <v>32900</v>
+        <v>27500</v>
       </c>
       <c r="J42" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K42" s="3">
         <v>35800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>44100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>59500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>74000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
-        <v>1300</v>
-      </c>
       <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M43" s="3">
+        <v>14900</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>14900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>5500</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1965,124 +2060,133 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15100</v>
+        <v>32700</v>
       </c>
       <c r="E46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F46" s="3">
         <v>19200</v>
       </c>
-      <c r="F46" s="3">
-        <v>24700</v>
-      </c>
       <c r="G46" s="3">
-        <v>32900</v>
+        <v>24600</v>
       </c>
       <c r="H46" s="3">
-        <v>29500</v>
+        <v>32700</v>
       </c>
       <c r="I46" s="3">
-        <v>36500</v>
+        <v>29300</v>
       </c>
       <c r="J46" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K46" s="3">
         <v>41000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>69600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>92300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>4800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -2090,20 +2194,23 @@
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2115,37 +2222,40 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2160,17 +2270,20 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>14900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,9 +2362,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2264,8 +2383,8 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2285,9 +2404,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15900</v>
+        <v>35700</v>
       </c>
       <c r="E54" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F54" s="3">
         <v>19400</v>
       </c>
-      <c r="F54" s="3">
-        <v>24800</v>
-      </c>
       <c r="G54" s="3">
-        <v>32900</v>
+        <v>24700</v>
       </c>
       <c r="H54" s="3">
-        <v>34300</v>
+        <v>32800</v>
       </c>
       <c r="I54" s="3">
-        <v>37600</v>
+        <v>34200</v>
       </c>
       <c r="J54" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K54" s="3">
         <v>41000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118900</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,58 +2527,62 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -2466,8 +2599,8 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2475,20 +2608,23 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
@@ -2497,70 +2633,76 @@
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
-        <v>2000</v>
-      </c>
       <c r="J60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2592,9 +2734,12 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2608,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2623,17 +2768,20 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-139300</v>
+        <v>-144400</v>
       </c>
       <c r="E72" s="3">
-        <v>-134900</v>
+        <v>-138700</v>
       </c>
       <c r="F72" s="3">
-        <v>-129800</v>
+        <v>-134400</v>
       </c>
       <c r="G72" s="3">
-        <v>-126400</v>
+        <v>-129200</v>
       </c>
       <c r="H72" s="3">
-        <v>-123300</v>
+        <v>-125800</v>
       </c>
       <c r="I72" s="3">
-        <v>-116600</v>
+        <v>-122800</v>
       </c>
       <c r="J72" s="3">
+        <v>-116200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-114400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-77700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14600</v>
+        <v>33300</v>
       </c>
       <c r="E76" s="3">
-        <v>18200</v>
+        <v>14500</v>
       </c>
       <c r="F76" s="3">
-        <v>23800</v>
+        <v>18100</v>
       </c>
       <c r="G76" s="3">
-        <v>31200</v>
+        <v>23700</v>
       </c>
       <c r="H76" s="3">
-        <v>32600</v>
+        <v>31000</v>
       </c>
       <c r="I76" s="3">
-        <v>35600</v>
+        <v>32500</v>
       </c>
       <c r="J76" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K76" s="3">
         <v>38000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>85700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>113000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40724</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,19 +3492,20 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3322,20 +3520,23 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>13700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3200</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6000</v>
       </c>
-      <c r="I89" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,8 +3804,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3594,38 +3814,41 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E94" s="3">
         <v>6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3400</v>
       </c>
-      <c r="F94" s="3">
-        <v>5100</v>
-      </c>
       <c r="G94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H94" s="3">
         <v>7200</v>
       </c>
-      <c r="H94" s="3">
-        <v>6200</v>
-      </c>
       <c r="I94" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J94" s="3">
         <v>4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,29 +4155,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3949,17 +4194,20 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3983,54 +4231,60 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -1059,7 +1059,7 @@
         <v>4400</v>
       </c>
       <c r="F17" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G17" s="3">
         <v>4300</v>
@@ -1068,7 +1068,7 @@
         <v>8000</v>
       </c>
       <c r="I17" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J17" s="3">
         <v>4100</v>
@@ -1155,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1197,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E21" s="3">
         <v>-4400</v>
@@ -1212,7 +1212,7 @@
         <v>-3000</v>
       </c>
       <c r="I21" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="J21" s="3">
         <v>-3100</v>
@@ -1281,13 +1281,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E23" s="3">
         <v>-4600</v>
       </c>
       <c r="F23" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G23" s="3">
         <v>-3400</v>
@@ -1407,13 +1407,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E26" s="3">
         <v>-4600</v>
       </c>
       <c r="F26" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G26" s="3">
         <v>-3400</v>
@@ -1449,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E27" s="3">
         <v>-4600</v>
       </c>
       <c r="F27" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G27" s="3">
         <v>-3400</v>
@@ -1659,10 +1659,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1701,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E33" s="3">
         <v>-4600</v>
       </c>
       <c r="F33" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G33" s="3">
         <v>-3400</v>
@@ -1785,13 +1785,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E35" s="3">
         <v>-4600</v>
       </c>
       <c r="F35" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G35" s="3">
         <v>-3400</v>
@@ -1919,7 +1919,7 @@
         <v>1100</v>
       </c>
       <c r="G41" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="3">
         <v>1300</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="E42" s="3">
         <v>8900</v>
       </c>
       <c r="F42" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="G42" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="H42" s="3">
-        <v>25800</v>
+        <v>25900</v>
       </c>
       <c r="I42" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="J42" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="K42" s="3">
         <v>35800</v>
@@ -2003,10 +2003,10 @@
         <v>1100</v>
       </c>
       <c r="G43" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H43" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I43" s="3">
         <v>1100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32700</v>
+        <v>32900</v>
       </c>
       <c r="E46" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="F46" s="3">
         <v>19200</v>
       </c>
       <c r="G46" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="H46" s="3">
-        <v>32700</v>
+        <v>32900</v>
       </c>
       <c r="I46" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="J46" s="3">
-        <v>36300</v>
+        <v>36500</v>
       </c>
       <c r="K46" s="3">
         <v>41000</v>
@@ -2207,7 +2207,7 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35700</v>
+        <v>35800</v>
       </c>
       <c r="E54" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F54" s="3">
         <v>19400</v>
       </c>
       <c r="G54" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="H54" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="I54" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="J54" s="3">
-        <v>37400</v>
+        <v>37600</v>
       </c>
       <c r="K54" s="3">
         <v>41000</v>
@@ -2666,7 +2666,7 @@
         <v>1300</v>
       </c>
       <c r="F60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1000</v>
@@ -2678,7 +2678,7 @@
         <v>1600</v>
       </c>
       <c r="J60" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K60" s="3">
         <v>2900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-144400</v>
+        <v>-145000</v>
       </c>
       <c r="E72" s="3">
-        <v>-138700</v>
+        <v>-139300</v>
       </c>
       <c r="F72" s="3">
-        <v>-134400</v>
+        <v>-134900</v>
       </c>
       <c r="G72" s="3">
-        <v>-129200</v>
+        <v>-129800</v>
       </c>
       <c r="H72" s="3">
-        <v>-125800</v>
+        <v>-126400</v>
       </c>
       <c r="I72" s="3">
-        <v>-122800</v>
+        <v>-123300</v>
       </c>
       <c r="J72" s="3">
-        <v>-116200</v>
+        <v>-116600</v>
       </c>
       <c r="K72" s="3">
         <v>-114400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="E76" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="F76" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="G76" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="H76" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="I76" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="J76" s="3">
-        <v>35400</v>
+        <v>35600</v>
       </c>
       <c r="K76" s="3">
         <v>38000</v>
@@ -3439,13 +3439,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E81" s="3">
         <v>-4600</v>
       </c>
       <c r="F81" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G81" s="3">
         <v>-3400</v>
@@ -3754,7 +3754,7 @@
         <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F89" s="3">
         <v>-4500</v>
@@ -3769,7 +3769,7 @@
         <v>-6000</v>
       </c>
       <c r="J89" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K89" s="3">
         <v>-5200</v>
@@ -3937,7 +3937,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26400</v>
+        <v>-26500</v>
       </c>
       <c r="E94" s="3">
         <v>6500</v>
@@ -3946,13 +3946,13 @@
         <v>3400</v>
       </c>
       <c r="G94" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H94" s="3">
         <v>7200</v>
       </c>
       <c r="I94" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J94" s="3">
         <v>4600</v>
@@ -4165,7 +4165,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>SILXY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,111 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40724</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2900</v>
+        <v>6000</v>
       </c>
       <c r="E8" s="3">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1100</v>
       </c>
       <c r="J8" s="3">
         <v>1100</v>
       </c>
       <c r="K8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,21 +797,24 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,21 +842,24 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7000</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,50 +876,54 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,23 +963,26 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>-100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -977,35 +996,38 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1020,20 +1042,23 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7500</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,92 +1072,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3900</v>
+        <v>6600</v>
       </c>
       <c r="E17" s="3">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="F17" s="3">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="G17" s="3">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
+        <v>4200</v>
       </c>
       <c r="I17" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17800</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-5100</v>
-      </c>
       <c r="G18" s="3">
-        <v>-3800</v>
+        <v>-5000</v>
       </c>
       <c r="H18" s="3">
-        <v>-7300</v>
+        <v>-3700</v>
       </c>
       <c r="I18" s="3">
-        <v>-6700</v>
+        <v>-7200</v>
       </c>
       <c r="J18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10600</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,92 +1181,99 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5300</v>
+        <v>-10600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1600</v>
+        <v>-5200</v>
       </c>
       <c r="F20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>4300</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>4200</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6000</v>
+        <v>-11000</v>
       </c>
       <c r="E21" s="3">
-        <v>-4400</v>
+        <v>-5800</v>
       </c>
       <c r="F21" s="3">
-        <v>-4900</v>
+        <v>-4300</v>
       </c>
       <c r="G21" s="3">
-        <v>-3400</v>
+        <v>-4800</v>
       </c>
       <c r="H21" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="I21" s="3">
-        <v>-6800</v>
+        <v>-2900</v>
       </c>
       <c r="J21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,53 +1311,59 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6300</v>
+        <v>-11300</v>
       </c>
       <c r="E23" s="3">
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="F23" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="G23" s="3">
-        <v>-3400</v>
+        <v>-5100</v>
       </c>
       <c r="H23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9200</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1358,9 +1403,12 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,93 +1448,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6300</v>
+        <v>-11300</v>
       </c>
       <c r="E26" s="3">
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="F26" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="G26" s="3">
-        <v>-3400</v>
+        <v>-5100</v>
       </c>
       <c r="H26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9200</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6300</v>
+        <v>-11300</v>
       </c>
       <c r="E27" s="3">
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="F27" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="G27" s="3">
-        <v>-3400</v>
+        <v>-5100</v>
       </c>
       <c r="H27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9100</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1526,9 +1583,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,33 +1604,36 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-22300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-20300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-13400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-13600</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1610,9 +1673,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1652,93 +1718,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5300</v>
+        <v>10600</v>
       </c>
       <c r="E32" s="3">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="F32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-4300</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>-4200</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6300</v>
+        <v>-11300</v>
       </c>
       <c r="E33" s="3">
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="F33" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="G33" s="3">
-        <v>-3400</v>
+        <v>-5100</v>
       </c>
       <c r="H33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
-        <v>-6700</v>
-      </c>
       <c r="J33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22700</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1778,98 +1853,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6300</v>
+        <v>-11300</v>
       </c>
       <c r="E35" s="3">
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="F35" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="G35" s="3">
-        <v>-3400</v>
+        <v>-5100</v>
       </c>
       <c r="H35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
-        <v>-6700</v>
-      </c>
       <c r="J35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22700</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40724</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1886,8 +1970,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1904,134 +1989,144 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
-        <v>1100</v>
-      </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5400</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27500</v>
+        <v>89400</v>
       </c>
       <c r="E42" s="3">
-        <v>8900</v>
+        <v>26900</v>
       </c>
       <c r="F42" s="3">
-        <v>16800</v>
+        <v>8800</v>
       </c>
       <c r="G42" s="3">
-        <v>21500</v>
+        <v>16400</v>
       </c>
       <c r="H42" s="3">
-        <v>25900</v>
+        <v>21000</v>
       </c>
       <c r="I42" s="3">
-        <v>27700</v>
+        <v>25400</v>
       </c>
       <c r="J42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K42" s="3">
         <v>32900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>44100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>74000</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>3900</v>
       </c>
       <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
-        <v>1300</v>
-      </c>
       <c r="H43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N43" s="3">
+        <v>14900</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P43" s="3">
         <v>5500</v>
       </c>
-      <c r="I43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>14900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2063,133 +2158,142 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>2600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6700</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32900</v>
+        <v>95600</v>
       </c>
       <c r="E46" s="3">
-        <v>15100</v>
+        <v>32200</v>
       </c>
       <c r="F46" s="3">
-        <v>19200</v>
+        <v>14700</v>
       </c>
       <c r="G46" s="3">
-        <v>24700</v>
+        <v>18800</v>
       </c>
       <c r="H46" s="3">
-        <v>32900</v>
+        <v>24200</v>
       </c>
       <c r="I46" s="3">
-        <v>29500</v>
+        <v>32200</v>
       </c>
       <c r="J46" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K46" s="3">
         <v>36500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>69600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>68000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92300</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -2197,23 +2301,26 @@
       <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2225,23 +2332,26 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10500</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2273,17 +2383,20 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>14900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2323,9 +2436,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,26 +2481,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2407,9 +2526,12 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2449,51 +2571,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35800</v>
+        <v>98700</v>
       </c>
       <c r="E54" s="3">
-        <v>15900</v>
+        <v>35100</v>
       </c>
       <c r="F54" s="3">
-        <v>19400</v>
+        <v>15600</v>
       </c>
       <c r="G54" s="3">
-        <v>24800</v>
+        <v>19100</v>
       </c>
       <c r="H54" s="3">
-        <v>32900</v>
+        <v>24300</v>
       </c>
       <c r="I54" s="3">
-        <v>34300</v>
+        <v>32300</v>
       </c>
       <c r="J54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K54" s="3">
         <v>37600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>99200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118900</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2510,8 +2638,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2528,8 +2657,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2537,55 +2667,58 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2602,8 +2735,8 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2611,23 +2744,26 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
-        <v>1100</v>
-      </c>
       <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
@@ -2636,77 +2772,83 @@
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2737,14 +2879,17 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2756,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -2771,17 +2916,20 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2821,9 +2969,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2863,9 +3014,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2905,51 +3059,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E66" s="3">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2966,8 +3126,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3007,9 +3168,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3049,9 +3213,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3091,9 +3258,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3133,51 +3303,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-145000</v>
+        <v>-152500</v>
       </c>
       <c r="E72" s="3">
-        <v>-139300</v>
+        <v>-142100</v>
       </c>
       <c r="F72" s="3">
-        <v>-134900</v>
+        <v>-136400</v>
       </c>
       <c r="G72" s="3">
-        <v>-129800</v>
+        <v>-132200</v>
       </c>
       <c r="H72" s="3">
-        <v>-126400</v>
+        <v>-127100</v>
       </c>
       <c r="I72" s="3">
-        <v>-123300</v>
+        <v>-123800</v>
       </c>
       <c r="J72" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-116600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-98000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-77700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-54700</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3217,9 +3393,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3259,9 +3438,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3301,51 +3483,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33400</v>
+        <v>96400</v>
       </c>
       <c r="E76" s="3">
-        <v>14600</v>
+        <v>32800</v>
       </c>
       <c r="F76" s="3">
-        <v>18200</v>
+        <v>14300</v>
       </c>
       <c r="G76" s="3">
-        <v>23800</v>
+        <v>17800</v>
       </c>
       <c r="H76" s="3">
-        <v>31200</v>
+        <v>23400</v>
       </c>
       <c r="I76" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="J76" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K76" s="3">
         <v>35600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>113000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3385,98 +3573,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40724</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6300</v>
+        <v>-11300</v>
       </c>
       <c r="E81" s="3">
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="F81" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="G81" s="3">
-        <v>-3400</v>
+        <v>-5100</v>
       </c>
       <c r="H81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
-        <v>-6700</v>
-      </c>
       <c r="J81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22700</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3493,22 +3690,23 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3523,20 +3721,23 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>13700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3576,9 +3777,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3618,9 +3822,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3660,9 +3867,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3702,9 +3912,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3744,51 +3957,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-7100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="J89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20800</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3805,8 +4024,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3817,38 +4037,41 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3888,9 +4111,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3930,51 +4156,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26500</v>
+        <v>-74200</v>
       </c>
       <c r="E94" s="3">
-        <v>6500</v>
+        <v>-26000</v>
       </c>
       <c r="F94" s="3">
-        <v>3400</v>
+        <v>6300</v>
       </c>
       <c r="G94" s="3">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="H94" s="3">
-        <v>7200</v>
+        <v>4900</v>
       </c>
       <c r="I94" s="3">
-        <v>6200</v>
+        <v>7000</v>
       </c>
       <c r="J94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K94" s="3">
         <v>4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3991,8 +4223,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4032,9 +4265,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4074,9 +4310,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4116,9 +4355,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4158,32 +4400,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25300</v>
+        <v>74300</v>
       </c>
       <c r="E100" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4197,21 +4442,24 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4234,57 +4482,63 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
-        <v>3200</v>
-      </c>
       <c r="F102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18300</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SILXY_YR_FIN.xlsx
@@ -1094,7 +1094,7 @@
         <v>4200</v>
       </c>
       <c r="I17" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J17" s="3">
         <v>7600</v>
@@ -1191,7 +1191,7 @@
         <v>-10600</v>
       </c>
       <c r="E20" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="F20" s="3">
         <v>-1500</v>
@@ -1323,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E23" s="3">
         <v>-6100</v>
@@ -1332,7 +1332,7 @@
         <v>-4500</v>
       </c>
       <c r="G23" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H23" s="3">
         <v>-3300</v>
@@ -1341,7 +1341,7 @@
         <v>-3000</v>
       </c>
       <c r="J23" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="K23" s="3">
         <v>-3100</v>
@@ -1458,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E26" s="3">
         <v>-6100</v>
@@ -1467,7 +1467,7 @@
         <v>-4500</v>
       </c>
       <c r="G26" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H26" s="3">
         <v>-3300</v>
@@ -1476,7 +1476,7 @@
         <v>-3000</v>
       </c>
       <c r="J26" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="K26" s="3">
         <v>-3100</v>
@@ -1503,7 +1503,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E27" s="3">
         <v>-6100</v>
@@ -1512,7 +1512,7 @@
         <v>-4500</v>
       </c>
       <c r="G27" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H27" s="3">
         <v>-3300</v>
@@ -1521,7 +1521,7 @@
         <v>-3000</v>
       </c>
       <c r="J27" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="K27" s="3">
         <v>-3100</v>
@@ -1731,7 +1731,7 @@
         <v>10600</v>
       </c>
       <c r="E32" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F32" s="3">
         <v>1500</v>
@@ -1773,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E33" s="3">
         <v>-6100</v>
@@ -1782,7 +1782,7 @@
         <v>-4500</v>
       </c>
       <c r="G33" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H33" s="3">
         <v>-3300</v>
@@ -1791,7 +1791,7 @@
         <v>-3000</v>
       </c>
       <c r="J33" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="K33" s="3">
         <v>-2200</v>
@@ -1863,7 +1863,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E35" s="3">
         <v>-6100</v>
@@ -1872,7 +1872,7 @@
         <v>-4500</v>
       </c>
       <c r="G35" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H35" s="3">
         <v>-3300</v>
@@ -1881,7 +1881,7 @@
         <v>-3000</v>
       </c>
       <c r="J35" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="K35" s="3">
         <v>-2200</v>
@@ -2002,7 +2002,7 @@
         <v>3300</v>
       </c>
       <c r="F41" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G41" s="3">
         <v>1000</v>
@@ -2041,13 +2041,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89400</v>
+        <v>89200</v>
       </c>
       <c r="E42" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="F42" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G42" s="3">
         <v>16400</v>
@@ -2059,7 +2059,7 @@
         <v>25400</v>
       </c>
       <c r="J42" s="3">
-        <v>27100</v>
+        <v>27000</v>
       </c>
       <c r="K42" s="3">
         <v>32900</v>
@@ -2101,7 +2101,7 @@
         <v>1200</v>
       </c>
       <c r="I43" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J43" s="3">
         <v>1100</v>
@@ -2221,10 +2221,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>95600</v>
+        <v>95500</v>
       </c>
       <c r="E46" s="3">
-        <v>32200</v>
+        <v>32100</v>
       </c>
       <c r="F46" s="3">
         <v>14700</v>
@@ -2236,10 +2236,10 @@
         <v>24200</v>
       </c>
       <c r="I46" s="3">
-        <v>32200</v>
+        <v>32100</v>
       </c>
       <c r="J46" s="3">
-        <v>28900</v>
+        <v>28800</v>
       </c>
       <c r="K46" s="3">
         <v>36500</v>
@@ -2266,7 +2266,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E47" s="3">
         <v>2000</v>
@@ -2314,7 +2314,7 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2581,22 +2581,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>98700</v>
+        <v>98500</v>
       </c>
       <c r="E54" s="3">
-        <v>35100</v>
+        <v>35000</v>
       </c>
       <c r="F54" s="3">
         <v>15600</v>
       </c>
       <c r="G54" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="H54" s="3">
         <v>24300</v>
       </c>
       <c r="I54" s="3">
-        <v>32300</v>
+        <v>32200</v>
       </c>
       <c r="J54" s="3">
         <v>33600</v>
@@ -2805,7 +2805,7 @@
         <v>1800</v>
       </c>
       <c r="F60" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
@@ -3313,25 +3313,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-152500</v>
+        <v>-152200</v>
       </c>
       <c r="E72" s="3">
-        <v>-142100</v>
+        <v>-141800</v>
       </c>
       <c r="F72" s="3">
-        <v>-136400</v>
+        <v>-136200</v>
       </c>
       <c r="G72" s="3">
-        <v>-132200</v>
+        <v>-131900</v>
       </c>
       <c r="H72" s="3">
-        <v>-127100</v>
+        <v>-126900</v>
       </c>
       <c r="I72" s="3">
-        <v>-123800</v>
+        <v>-123600</v>
       </c>
       <c r="J72" s="3">
-        <v>-120800</v>
+        <v>-120600</v>
       </c>
       <c r="K72" s="3">
         <v>-116600</v>
@@ -3493,10 +3493,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>96400</v>
+        <v>96200</v>
       </c>
       <c r="E76" s="3">
-        <v>32800</v>
+        <v>32700</v>
       </c>
       <c r="F76" s="3">
         <v>14300</v>
@@ -3505,13 +3505,13 @@
         <v>17800</v>
       </c>
       <c r="H76" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="I76" s="3">
         <v>30500</v>
       </c>
       <c r="J76" s="3">
-        <v>32000</v>
+        <v>31900</v>
       </c>
       <c r="K76" s="3">
         <v>35600</v>
@@ -3633,7 +3633,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E81" s="3">
         <v>-6100</v>
@@ -3642,7 +3642,7 @@
         <v>-4500</v>
       </c>
       <c r="G81" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H81" s="3">
         <v>-3300</v>
@@ -3651,7 +3651,7 @@
         <v>-3000</v>
       </c>
       <c r="J81" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="K81" s="3">
         <v>-2200</v>
@@ -3982,10 +3982,10 @@
         <v>-4500</v>
       </c>
       <c r="I89" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="J89" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K89" s="3">
         <v>-4300</v>
@@ -4166,10 +4166,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74200</v>
+        <v>-74000</v>
       </c>
       <c r="E94" s="3">
-        <v>-26000</v>
+        <v>-25900</v>
       </c>
       <c r="F94" s="3">
         <v>6300</v>
@@ -4410,10 +4410,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>74300</v>
+        <v>74100</v>
       </c>
       <c r="E100" s="3">
-        <v>24800</v>
+        <v>24700</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
